--- a/SYUMAI_Siyousyo_Inoue.xlsx
+++ b/SYUMAI_Siyousyo_Inoue.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>あべ</t>
     <phoneticPr fontId="1"/>
@@ -208,12 +208,74 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンの種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクト画面に移動するためのボタンです。
+マウスや矢印キーでカーソルを合わせて左クリックをするかEnterキーを押すことでステージセレクト画面に移動できます。</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +343,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +377,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -411,68 +493,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,6 +564,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,67 +669,97 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,6 +786,3316 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76199" y="5162550"/>
+          <a:ext cx="2562225" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4400">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>START</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4400">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>354842</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>198888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>236988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="354842" y="1389513"/>
+          <a:ext cx="4512433" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ネリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ケシ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" baseline="0"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>エス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ケー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>プ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="2790826"/>
+          <a:ext cx="1247775" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>START</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3555</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>147709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546480" y="1462159"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107192</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>250067</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="793134" y="1463295"/>
+          <a:ext cx="142875" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347734</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>490751</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1033676" y="1467702"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593536</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49616</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1279478" y="1467277"/>
+          <a:ext cx="142022" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>145150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>288167</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1517034" y="1464149"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393510</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>536527</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1765394" y="1467276"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632062</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89137</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2003946" y="1467702"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>191354</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>334371</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153253</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2249180" y="1467703"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>443269</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586286</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2501095" y="1470830"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2986</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146003</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156807</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2746755" y="1471257"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>244664</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>387681</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153253</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2988433" y="1467703"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>479235</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622252</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3223004" y="1464150"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>24310</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167327</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156807</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3454021" y="1471257"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419241</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705935" y="1463723"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>499707</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>642724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3929418" y="1463296"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27011</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>170028</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4142664" y="1466851"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251772</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>394789</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>156808</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4367425" y="1471258"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>489897</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>632914</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>153253</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4605550" y="1467703"/>
+          <a:ext cx="143017" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>585699</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>148569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>649912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>70993</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="グループ化 39"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="585699" y="1339194"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="31" name="直線コネクタ 30"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="37" name="直線コネクタ 36"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152549</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>145107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>216762</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>67531</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="41" name="グループ化 40"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="838349" y="1335732"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="42" name="直線コネクタ 41"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="直線コネクタ 42"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>386805</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>451018</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>74823</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="グループ化 43"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1072605" y="1343024"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="直線コネクタ 44"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="直線コネクタ 45"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>639664</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>159691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19267</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>82115</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="グループ化 46"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1325464" y="1350316"/>
+          <a:ext cx="65403" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="直線コネクタ 47"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="49" name="直線コネクタ 48"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>185589</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>155822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>249802</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78246</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="グループ化 49"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1557189" y="1346447"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="51" name="直線コネクタ 50"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="52" name="直線コネクタ 51"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431007</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>151953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495220</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>74377</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="53" name="グループ化 52"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1802607" y="1342578"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="直線コネクタ 53"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="55" name="直線コネクタ 54"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>672703</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>151804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52307</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>74228</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="56" name="グループ化 55"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2044303" y="1342429"/>
+          <a:ext cx="65404" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="57" name="直線コネクタ 56"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="58" name="直線コネクタ 57"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>237232</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>155376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>301445</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="59" name="グループ化 58"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2294632" y="1346001"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="60" name="直線コネクタ 59"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="61" name="直線コネクタ 60"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>486370</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>155227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>550583</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77651</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="62" name="グループ化 61"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2543770" y="1345852"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="63" name="直線コネクタ 62"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="64" name="直線コネクタ 63"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43458</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>155079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>107671</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77503</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="グループ化 64"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2786658" y="1345704"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="66" name="直線コネクタ 65"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="67" name="直線コネクタ 66"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292595</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>356808</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88515</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="68" name="グループ化 67"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3035795" y="1356716"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="69" name="直線コネクタ 68"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="70" name="直線コネクタ 69"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523131</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>587344</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77205</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="71" name="グループ化 70"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3266331" y="1345406"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="72" name="直線コネクタ 71"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="73" name="直線コネクタ 72"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61615</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125828</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80777</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="74" name="グループ化 73"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3490615" y="1348978"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="75" name="直線コネクタ 74"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="76" name="直線コネクタ 75"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313915</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>378128</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87826</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="グループ化 76"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3742915" y="1356027"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="78" name="直線コネクタ 77"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="79" name="直線コネクタ 78"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>540729</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>604942</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83957</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="80" name="グループ化 79"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3969729" y="1352158"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="81" name="直線コネクタ 80"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="82" name="直線コネクタ 81"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>75493</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139706</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87529</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="グループ化 82"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4190293" y="1355730"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="84" name="直線コネクタ 83"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="85" name="直線コネクタ 84"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>291145</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355358</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83659</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="グループ化 85"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4405945" y="1351860"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="87" name="直線コネクタ 86"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="88" name="直線コネクタ 87"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532842</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>597055</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83510</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="グループ化 88"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4647642" y="1351711"/>
+          <a:ext cx="64213" cy="160549"/>
+          <a:chOff x="585699" y="1339194"/>
+          <a:chExt cx="64213" cy="160549"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="90" name="直線コネクタ 89"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="585699" y="1344444"/>
+            <a:ext cx="0" cy="155299"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="91" name="直線コネクタ 90"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="649912" y="1339194"/>
+            <a:ext cx="0" cy="155058"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="99" name="グループ化 98"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2819400" y="1762125"/>
+          <a:ext cx="676275" cy="647700"/>
+          <a:chOff x="3600450" y="1800225"/>
+          <a:chExt cx="676275" cy="647700"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="楕円 94"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3600450" y="1800225"/>
+            <a:ext cx="676275" cy="647700"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="楕円 95"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3743325" y="1924050"/>
+            <a:ext cx="114300" cy="219075"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="楕円 96"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3924300" y="1924050"/>
+            <a:ext cx="114300" cy="219075"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1565,14 +5057,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="70"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="70"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="70"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="74"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="61"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="77"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="61"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="61"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="61"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="80"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="E17:H18"/>
+    <mergeCell ref="E19:H29"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="A6:H16"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D29"/>
+    <mergeCell ref="A1:E3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1612,415 +5415,415 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="39" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="19" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="19" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="19" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="A8:D16"/>
+    <mergeCell ref="E6:H16"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A19:D27"/>
     <mergeCell ref="E17:H27"/>
     <mergeCell ref="A28:D29"/>
     <mergeCell ref="A30:D38"/>
     <mergeCell ref="E28:H38"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="A8:D16"/>
-    <mergeCell ref="E6:H16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SYUMAI_Siyousyo_Inoue.xlsx
+++ b/SYUMAI_Siyousyo_Inoue.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>あべ</t>
     <phoneticPr fontId="1"/>
@@ -264,10 +264,6 @@
     <rPh sb="76" eb="78">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -516,25 +512,178 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -564,6 +713,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,15 +749,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,168 +756,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5057,312 +5053,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="25"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="70"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="70"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="70"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="70"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="70"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="23" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="56" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="58"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="K20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="61"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="61"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="80"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="64"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:E3"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="E17:H18"/>
     <mergeCell ref="E19:H29"/>
@@ -5370,7 +5364,6 @@
     <mergeCell ref="A6:H16"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A21:D29"/>
-    <mergeCell ref="A1:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5415,415 +5408,415 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="37"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="46" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="8" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="64"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="64"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="8" t="s">
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="61"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="64"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="64"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="64"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="64"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="64"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="64"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A19:D27"/>
+    <mergeCell ref="E17:H27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A30:D38"/>
+    <mergeCell ref="E28:H38"/>
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="A4:D5"/>
     <mergeCell ref="E4:H5"/>
     <mergeCell ref="A6:D7"/>
     <mergeCell ref="A8:D16"/>
     <mergeCell ref="E6:H16"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A19:D27"/>
-    <mergeCell ref="E17:H27"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="A30:D38"/>
-    <mergeCell ref="E28:H38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5836,7 +5829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
